--- a/results/multiclass/40975/automl.xlsx
+++ b/results/multiclass/40975/automl.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,6 +504,21 @@
           <t>test_time</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -576,6 +591,9 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -648,6 +666,9 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -720,6 +741,9 @@
           <t>00:00:09</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -792,6 +816,9 @@
           <t>00:00:01</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -864,6 +891,9 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -936,6 +966,9 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1008,6 +1041,9 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1080,6 +1116,9 @@
           <t>00:00:00</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1150,6 +1189,96 @@
       <c r="N10" t="inlineStr">
         <is>
           <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>tpot</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0.983</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.947</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.964</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.923</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.983</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0.984</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.964</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>00:10:10</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
         </is>
       </c>
     </row>

--- a/results/multiclass/40975/automl.xlsx
+++ b/results/multiclass/40975/automl.xlsx
@@ -496,27 +496,27 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_average_precision_score</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>label_ranking_loss</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>training_time</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>test_time</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>coverage_error</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>label_ranking_average_precision_score</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>label_ranking_loss</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>0.980</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -538,32 +538,32 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.967</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0.958</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>0.935</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0.934</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.897</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>0.980</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.970</t>
+          <t>0.981</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -583,17 +583,29 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>00:00:13</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>00:00:11</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -603,7 +615,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -613,32 +625,32 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.971</t>
+          <t>0.965</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.942</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.991</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.992</t>
+          <t>0.986</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.982</t>
+          <t>0.970</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -658,17 +670,29 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>00:01:16</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>00:01:17</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -678,7 +702,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -688,32 +712,32 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.931</t>
+          <t>0.946</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>0.940</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>0.909</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.881</t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.957</t>
+          <t>0.971</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.959</t>
+          <t>0.973</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.911</t>
+          <t>0.940</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -733,17 +757,29 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>00:10:12</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>00:00:09</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>00:13:38</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>00:02:17</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -753,44 +789,44 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>0.988</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>-1.000</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.976</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>0.988</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0.976</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.955</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.988</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.989</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0.976</t>
-        </is>
-      </c>
       <c r="J5" t="inlineStr">
         <is>
           <t>-1.000</t>
@@ -808,17 +844,29 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>00:10:13</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>00:00:01</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>00:19:39</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>00:00:02</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -828,7 +876,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.951</t>
+          <t>0.916</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -838,32 +886,32 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.911</t>
+          <t>0.860</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>0.826</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.863</t>
+          <t>0.787</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.951</t>
+          <t>0.916</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.952</t>
+          <t>0.922</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.899</t>
+          <t>0.831</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -883,17 +931,29 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>00:10:01</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -903,44 +963,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>0.988</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>-1.000</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.976</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0.976</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.974</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0.994</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
           <t>0.988</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.988</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.976</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
           <t>-1.000</t>
@@ -958,17 +1018,29 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>00:10:00</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -978,7 +1050,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>0.980</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -988,32 +1060,32 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.916</t>
+          <t>0.944</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>0.915</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.968</t>
+          <t>0.980</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.969</t>
+          <t>0.981</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.934</t>
+          <t>0.958</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1033,17 +1105,29 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>00:08:59</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1053,7 +1137,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.821</t>
+          <t>0.728</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1063,32 +1147,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.419</t>
+          <t>0.325</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.599</t>
+          <t>0.322</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.397</t>
+          <t>0.315</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.821</t>
+          <t>0.728</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.789</t>
+          <t>0.680</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.605</t>
+          <t>0.342</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1108,17 +1192,29 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>00:10:05</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>00:10:10</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1128,7 +1224,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.896</t>
+          <t>0.902</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1138,32 +1234,32 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.519</t>
+          <t>0.482</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.782</t>
+          <t>0.795</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.526</t>
+          <t>0.489</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.896</t>
+          <t>0.902</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.907</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.782</t>
+          <t>0.795</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1183,17 +1279,29 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>00:00:51</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1258,27 +1366,27 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>00:10:10</t>
+          <t>-1.000</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>-1.000</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>00:10:02</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
           <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-1.000</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-1.000</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-1.000</t>
         </is>
       </c>
     </row>

--- a/results/multiclass/40975/automl.xlsx
+++ b/results/multiclass/40975/automl.xlsx
@@ -663,12 +663,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.989 (0.986 Â± 0.004)</t>
+          <t>0.989 (0.988 Â± 0.000)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:05:00 (00:11:11 Â± 00:07:41)</t>
+          <t>00:05:00 (00:06:51 Â± 00:01:55)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[2, 5, 11, 13, 17, 19, 23, 29, 31, 37, 41, 47, 59, 61, 67, 71]</t>
+          <t>[2, 3, 5, 11, 13, 17, 19, 23, 29, 31, 37, 41, 47, 59, 61, 67, 71]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -919,12 +919,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.000 (0.993 Â± 0.006)</t>
+          <t>1.000 (0.995 Â± 0.005)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:15:01 (00:15:55 Â± 00:00:24)</t>
+          <t>00:00:09 (00:00:10 Â± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">

--- a/results/multiclass/40975/automl.xlsx
+++ b/results/multiclass/40975/automl.xlsx
@@ -473,17 +473,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.996 (0.995 Â± 0.001)</t>
+          <t>0.996 (0.995 ± 0.001)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>00:03:52 (00:05:00 Â± 00:00:37)</t>
+          <t>00:03:52 (00:05:00 ± 00:00:37)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:05 Â± 00:00:02)</t>
+          <t>00:00:01 (00:00:05 ± 00:00:02)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -503,17 +503,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1.000 (0.989 Â± 0.009)</t>
+          <t>1.000 (0.989 ± 0.009)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>00:00:17 (00:00:26 Â± 00:00:09)</t>
+          <t>00:00:17 (00:00:26 ± 00:00:09)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -535,17 +535,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1.000 (0.980 Â± 0.014)</t>
+          <t>1.000 (0.980 ± 0.014)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>00:00:50 (00:01:17 Â± 00:00:14)</t>
+          <t>00:00:50 (00:01:17 ± 00:00:14)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,17 +567,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.995 (0.977 Â± 0.010)</t>
+          <t>0.995 (0.977 ± 0.010)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>00:05:07 (00:05:13 Â± 00:00:03)</t>
+          <t>00:05:07 (00:05:13 ± 00:00:03)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:01)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:01)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -599,17 +599,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1.000 (0.998 Â± 0.005)</t>
+          <t>1.000 (0.998 ± 0.005)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>00:04:58 (00:05:02 Â± 00:00:02)</t>
+          <t>00:04:58 (00:05:02 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:00:02 (00:00:10 Â± 00:00:08)</t>
+          <t>00:00:02 (00:00:10 ± 00:00:08)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -631,17 +631,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.788 (0.746 Â± 0.032)</t>
+          <t>0.788 (0.746 ± 0.032)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:03 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:03 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -663,17 +663,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.989 (0.988 Â± 0.000)</t>
+          <t>0.989 (0.988 ± 0.000)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>00:05:00 (00:06:51 Â± 00:01:55)</t>
+          <t>00:05:00 (00:06:51 ± 00:01:55)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -695,17 +695,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1.000 (0.996 Â± 0.004)</t>
+          <t>1.000 (0.996 ± 0.004)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:05:00 (00:05:01 Â± 00:00:02)</t>
+          <t>00:05:00 (00:05:01 ± 00:00:02)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -727,17 +727,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.000 (0.989 Â± 0.010)</t>
+          <t>1.000 (0.989 ± 0.010)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>00:04:29 (00:04:29 Â± 00:00:00)</t>
+          <t>00:04:29 (00:04:29 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.846 (0.721 Â± 0.093)</t>
+          <t>0.846 (0.721 ± 0.093)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>00:05:05 (00:05:06 Â± 00:00:00)</t>
+          <t>00:05:05 (00:05:06 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.997 (0.931 Â± 0.029)</t>
+          <t>0.997 (0.931 ± 0.029)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>00:01:53 (00:02:17 Â± 00:00:14)</t>
+          <t>00:01:53 (00:02:17 ± 00:00:14)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -823,17 +823,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.994 (0.969 Â± 0.023)</t>
+          <t>0.994 (0.969 ± 0.023)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>00:00:01 (00:00:02 Â± 00:00:00)</t>
+          <t>00:00:01 (00:00:02 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -855,17 +855,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>1.000 (0.989 Â± 0.007)</t>
+          <t>1.000 (0.989 ± 0.007)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>00:00:23 (00:00:28 Â± 00:00:04)</t>
+          <t>00:00:23 (00:00:28 ± 00:00:04)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -887,17 +887,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1.000 (0.996 Â± 0.004)</t>
+          <t>1.000 (0.996 ± 0.004)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>00:01:56 (00:01:57 Â± 00:00:00)</t>
+          <t>00:01:56 (00:01:57 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -919,17 +919,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1.000 (0.995 Â± 0.005)</t>
+          <t>1.000 (0.995 ± 0.005)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>00:00:09 (00:00:10 Â± 00:00:00)</t>
+          <t>00:00:09 (00:00:10 ± 00:00:00)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -951,17 +951,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.000 (0.994 Â± 0.006)</t>
+          <t>1.000 (0.994 ± 0.006)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>00:05:02 (00:05:14 Â± 00:00:12)</t>
+          <t>00:05:02 (00:05:14 ± 00:00:12)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>00:00:00 (00:00:00 Â± 00:00:00)</t>
+          <t>00:00:00 (00:00:00 ± 00:00:00)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
